--- a/doors-detector/results/house2_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
+++ b/doors-detector/results/house2_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.828859248221286</v>
+        <v>0.8405285620557078</v>
       </c>
       <c r="F2" t="n">
         <v>1190</v>
       </c>
       <c r="G2" t="n">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="H2" t="n">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1974515574275539</v>
+        <v>0.1893633579501943</v>
       </c>
       <c r="F3" t="n">
         <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6027853727725426</v>
+        <v>0.6081586409698605</v>
       </c>
       <c r="F4" t="n">
         <v>175</v>
       </c>
       <c r="G4" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7599269520006939</v>
+        <v>0.7635403661130559</v>
       </c>
       <c r="F5" t="n">
         <v>1190</v>
       </c>
       <c r="G5" t="n">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="H5" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4153323438479689</v>
+        <v>0.5569599321280798</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7596386286819731</v>
+        <v>0.7718831935586841</v>
       </c>
       <c r="F7" t="n">
         <v>175</v>
       </c>
       <c r="G7" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H7" t="n">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7873663437311562</v>
+        <v>0.8454745675671476</v>
       </c>
       <c r="F8" t="n">
         <v>1190</v>
       </c>
       <c r="G8" t="n">
-        <v>1009</v>
+        <v>1059</v>
       </c>
       <c r="H8" t="n">
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4605763575192922</v>
+        <v>0.5558125468281717</v>
       </c>
       <c r="F9" t="n">
         <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7651387057052043</v>
+        <v>0.7912632288831678</v>
       </c>
       <c r="F10" t="n">
         <v>175</v>
       </c>
       <c r="G10" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H10" t="n">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8262447372272335</v>
+        <v>0.8210577746771238</v>
       </c>
       <c r="F11" t="n">
         <v>1190</v>
       </c>
       <c r="G11" t="n">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="H11" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.5279142465322528</v>
+        <v>0.7060278470682434</v>
       </c>
       <c r="F12" t="n">
         <v>32</v>
       </c>
       <c r="G12" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7812299195161276</v>
+        <v>0.7719551086093104</v>
       </c>
       <c r="F13" t="n">
         <v>175</v>
       </c>
       <c r="G13" t="n">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H13" t="n">
-        <v>160</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8156295743663857</v>
+        <v>0.8076849060310946</v>
       </c>
       <c r="F14" t="n">
         <v>1190</v>
       </c>
       <c r="G14" t="n">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="H14" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6967931277875684</v>
+        <v>0.8048776916606266</v>
       </c>
       <c r="F15" t="n">
         <v>32</v>
       </c>
       <c r="G15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.8162986993268471</v>
+        <v>0.8100713055515087</v>
       </c>
       <c r="F16" t="n">
         <v>175</v>
       </c>
       <c r="G16" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.766592463745313</v>
+        <v>0.8135536049984583</v>
       </c>
       <c r="F17" t="n">
         <v>1190</v>
       </c>
       <c r="G17" t="n">
-        <v>992</v>
+        <v>1031</v>
       </c>
       <c r="H17" t="n">
-        <v>198</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7241053181892654</v>
+        <v>0.8488464061733493</v>
       </c>
       <c r="F18" t="n">
         <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.8214847397067894</v>
+        <v>0.8178531443025943</v>
       </c>
       <c r="F19" t="n">
         <v>175</v>
       </c>
       <c r="G19" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H19" t="n">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
